--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>检视问题</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>解决</t>
-  </si>
-  <si>
-    <t>是否修改</t>
   </si>
   <si>
     <t>首页宽度变小，头部部分的搜索会遮挡其他
@@ -52,6 +49,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>样式对宽度小于</t>
     </r>
@@ -71,6 +69,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>的支持不够全面</t>
     </r>
@@ -82,6 +81,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>重新编写宽度小于</t>
     </r>
@@ -101,6 +101,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>的样式</t>
     </r>
@@ -118,6 +119,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>内容部分</t>
     </r>
@@ -137,6 +139,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>上方内边距不够</t>
     </r>
@@ -148,6 +151,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>设置宽度小于</t>
     </r>
@@ -167,6 +171,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>下内容部分</t>
     </r>
@@ -186,6 +191,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>上方内边距</t>
     </r>
@@ -209,6 +215,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>样式文件</t>
     </r>
@@ -228,6 +235,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>、</t>
     </r>
@@ -247,6 +255,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>合并</t>
     </r>
@@ -261,6 +270,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>合并</t>
     </r>
@@ -280,6 +290,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>和</t>
     </r>
@@ -299,6 +310,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>目录下样式文件</t>
     </r>
@@ -320,6 +332,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>重用</t>
     </r>
@@ -339,6 +352,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>文件</t>
     </r>
@@ -360,6 +374,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>执行一次</t>
     </r>
@@ -381,6 +396,7 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>行</t>
     </r>
@@ -405,6 +421,7 @@
       <color rgb="FF000000"/>
       <name val="文泉驿点阵正黑"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -597,19 +614,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.6351931330472"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5579399141631"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0257510729614"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9570815450644"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.54077253218884"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0171673819742"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2317596566524"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.8412017167382"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.3991416309013"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.2188841201717"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -625,98 +642,88 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -742,7 +749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54077253218884"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2188841201717"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -768,7 +775,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.54077253218884"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2188841201717"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+  <si>
+    <t>检视时间</t>
+  </si>
+  <si>
+    <t>检视需求</t>
+  </si>
+  <si>
+    <t>检视人</t>
+  </si>
   <si>
     <t>检视问题</t>
   </si>
@@ -34,6 +43,18 @@
   </si>
   <si>
     <t>解决</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>华为抽检</t>
+  </si>
+  <si>
+    <t>抽检问题</t>
+  </si>
+  <si>
+    <t>王杰</t>
   </si>
   <si>
     <t>首页宽度变小，头部部分的搜索会遮挡其他
@@ -322,7 +343,6 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="0"/>
-        <charset val="134"/>
       </rPr>
       <t>include </t>
     </r>
@@ -332,10 +352,47 @@
         <color rgb="FF000000"/>
         <rFont val="文泉驿点阵正黑"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>重用</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="0"/>
+      </rPr>
+      <t>md</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿点阵正黑"/>
+        <family val="2"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+  </si>
+  <si>
+    <t>页面右侧目录重复</t>
+  </si>
+  <si>
+    <t>重用的md文件中包含模板文件导致生成2个目录</t>
+  </si>
+  <si>
+    <t>重用的md文件不能包含模板文件</t>
+  </si>
+  <si>
+    <t>头信息显示在页面中</t>
+  </si>
+  <si>
+    <t>重用无法处理头信息，导致头信息显示在页面中</t>
+  </si>
+  <si>
+    <t>重用的md文件不能有头信息</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -344,17 +401,17 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>md</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿点阵正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>文件</t>
+      <t>10ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="文泉驿点阵正黑"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>执行一次</t>
     </r>
   </si>
   <si>
@@ -366,28 +423,6 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t>10ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿点阵正黑"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>执行一次</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
       <t>/js/script.js 191</t>
     </r>
     <r>
@@ -406,16 +441,102 @@
   </si>
   <si>
     <t>间隔时间可以调长点</t>
+  </si>
+  <si>
+    <t>页面显示效果检查</t>
+  </si>
+  <si>
+    <t>孙亦川</t>
+  </si>
+  <si>
+    <t>一级菜单和二级菜单色，与整体色系不一致</t>
+  </si>
+  <si>
+    <t>二级菜单和内容部分区分不明显</t>
+  </si>
+  <si>
+    <t>sass样式文件格式检查</t>
+  </si>
+  <si>
+    <t>姚沙</t>
+  </si>
+  <si>
+    <t>颜色“grey”必须使用其十六进制格式“#808080”</t>
+  </si>
+  <si>
+    <t>/css/styles.sass 5行</t>
+  </si>
+  <si>
+    <t>使用“#808080”替换“grey”</t>
+  </si>
+  <si>
+    <t>字符串必须使用单引号</t>
+  </si>
+  <si>
+    <t>/css/styles.sass 9，10，11，95，151，行</t>
+  </si>
+  <si>
+    <t>使用单引号替换双引号</t>
+  </si>
+  <si>
+    <t>值为0时不需要写单位</t>
+  </si>
+  <si>
+    <t>/_sass/_base.sass 23,24行</t>
+  </si>
+  <si>
+    <t>删除“0px”中的“px”</t>
+  </si>
+  <si>
+    <t>像“#424242”这样的色值应该使用变量命名</t>
+  </si>
+  <si>
+    <t>/_sass/_base.sass 25,44,101,160,183,210,219,220,291,298,354,419,425,426,437,443,468行
+/_sass/_desktop.sass 12,13行</t>
+  </si>
+  <si>
+    <t>在/css/styles.sass中添加变量“$ink-black: #424242”，此时使用“$ink-black”替换“#424242” 
+类似问题同样方式处理</t>
+  </si>
+  <si>
+    <t>url需要用引号包含</t>
+  </si>
+  <si>
+    <t>/_sass/_base.sass 12,33,243,397行</t>
+  </si>
+  <si>
+    <t>使用单引号包含“/images/toc_icon_grey.png”</t>
+  </si>
+  <si>
+    <t>缩进使用制表符</t>
+  </si>
+  <si>
+    <t>/_sass/_base.sass
+/_sass/_desktop.sass
+/_sass/_tablet.sass</t>
+  </si>
+  <si>
+    <t>使用空格替换制表符</t>
+  </si>
+  <si>
+    <t>“before”和“after”之前必须使用2个冒号</t>
+  </si>
+  <si>
+    <t>/_sass/_base.sass 93,257,360,382，448，461，470行</t>
+  </si>
+  <si>
+    <t>在“before”和“after”前使用2个冒号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,6 +566,18 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="文泉驿点阵正黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -455,12 +588,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6D9F1"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -469,17 +602,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -508,12 +634,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,8 +667,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -546,66 +688,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFC6D9F1"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -614,19 +696,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0171673819742"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2317596566524"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.8412017167382"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.3991416309013"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.2188841201717"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="9.69098712446352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.519313304721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0472103004292"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8884120171674"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.9699570815451"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.9012875536481"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -642,88 +725,720 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A6" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="50" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>42880</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -749,7 +1464,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2188841201717"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9012875536481"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -775,7 +1490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2188841201717"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9012875536481"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>检视时间</t>
   </si>
@@ -698,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1146,49 +1146,41 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>42886</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>42887</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>42886</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>42887</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1197,14 +1189,14 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1213,14 +1205,14 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1229,14 +1221,14 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1245,14 +1237,14 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1261,14 +1253,14 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1277,14 +1269,14 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1293,14 +1285,14 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1309,14 +1301,14 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1325,14 +1317,14 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1341,14 +1333,14 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1357,14 +1349,14 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1373,7 +1365,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="n">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1386,9 +1378,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="2" t="n">
-        <v>42886</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
@@ -1459,7 +1449,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H18:H31 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1485,7 +1475,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H18:H31 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>检视时间</t>
   </si>
@@ -452,7 +452,13 @@
     <t>一级菜单和二级菜单色，与整体色系不一致</t>
   </si>
   <si>
+    <t>一级菜单选中样式加下划线，二级菜单选中颜色改为蓝色</t>
+  </si>
+  <si>
     <t>二级菜单和内容部分区分不明显</t>
+  </si>
+  <si>
+    <t>二级菜单和内容部分之间增加分割线</t>
   </si>
   <si>
     <t>sass样式文件格式检查</t>
@@ -526,6 +532,42 @@
   </si>
   <si>
     <t>在“before”和“after”前使用2个冒号</t>
+  </si>
+  <si>
+    <t>搜索功能太简单</t>
+  </si>
+  <si>
+    <t>搜索结果只显示10条，而且搜索关键字和显示的标题不匹配容易造成误解</t>
+  </si>
+  <si>
+    <t>增加独立搜索页面，和头部搜索区分开</t>
+  </si>
+  <si>
+    <t>有些页面搜索不出来</t>
+  </si>
+  <si>
+    <t>搜索范围有控制，只能搜索html文件，而那些不需要输入完整路径也可以访问的页面就被排除在外了</t>
+  </si>
+  <si>
+    <t>修改搜索范围,只排除xml和json文件，并以头信息的“search: exclude”区分是否在搜索范围内</t>
+  </si>
+  <si>
+    <t>搜索结果重复</t>
+  </si>
+  <si>
+    <t>页面头部搜索和独立搜索功能初始化导致页面信息被读取2次</t>
+  </si>
+  <si>
+    <t>页面头部搜索和独立搜索功能使用同一搜索源</t>
+  </si>
+  <si>
+    <t>搜索连接突变乱码</t>
+  </si>
+  <si>
+    <t>未引入样式文件</t>
+  </si>
+  <si>
+    <t>引入需要的样式文件</t>
   </si>
 </sst>
 </file>
@@ -696,10 +738,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:H31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -939,8 +981,12 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
@@ -955,12 +1001,16 @@
         <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
@@ -969,20 +1019,20 @@
         <v>42886</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>42886</v>
@@ -995,20 +1045,20 @@
         <v>42886</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>42886</v>
@@ -1021,20 +1071,20 @@
         <v>42886</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>42886</v>
@@ -1047,20 +1097,20 @@
         <v>42886</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>42886</v>
@@ -1073,20 +1123,20 @@
         <v>42886</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>42886</v>
@@ -1099,20 +1149,20 @@
         <v>42886</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>42886</v>
@@ -1125,20 +1175,20 @@
         <v>42886</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>42886</v>
@@ -1148,16 +1198,24 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>42887</v>
+        <v>42886</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H18" s="2" t="n">
-        <v>42887</v>
+        <v>42886</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1167,27 +1225,43 @@
         <v>42887</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H19" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H20" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1199,11 +1273,19 @@
         <v>42887</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="H21" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1371,14 +1453,18 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
@@ -1390,7 +1476,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
@@ -1429,6 +1515,18 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1449,7 +1547,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H18:H31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1475,7 +1573,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H18:H31 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>检视时间</t>
   </si>
@@ -549,7 +549,7 @@
     <t>搜索范围有控制，只能搜索html文件，而那些不需要输入完整路径也可以访问的页面就被排除在外了</t>
   </si>
   <si>
-    <t>修改搜索范围,只排除xml和json文件，并以头信息的“search: exclude”区分是否在搜索范围内</t>
+    <t>修改搜索范围,以头信息的“search: exclude”区分是否在搜索范围内</t>
   </si>
   <si>
     <t>搜索结果重复</t>
@@ -568,6 +568,18 @@
   </si>
   <si>
     <t>引入需要的样式文件</t>
+  </si>
+  <si>
+    <t>独立搜索页面样式和整体样式不符</t>
+  </si>
+  <si>
+    <t>修改搜索页面样式</t>
+  </si>
+  <si>
+    <t>头部搜索弹出框被目录遮挡</t>
+  </si>
+  <si>
+    <t>右侧目录高度未与文本平齐</t>
   </si>
 </sst>
 </file>
@@ -740,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1297,11 +1309,17 @@
         <v>42887</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H22" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1314,7 +1332,9 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1330,7 +1350,9 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>

--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>检视时间</t>
   </si>
@@ -558,10 +558,10 @@
     <t>页面头部搜索和独立搜索功能初始化导致页面信息被读取2次</t>
   </si>
   <si>
-    <t>页面头部搜索和独立搜索功能使用同一搜索源</t>
-  </si>
-  <si>
-    <t>搜索连接突变乱码</t>
+    <t>页面头部搜索和独立搜索功能使用不同搜索源，防止结果混乱</t>
+  </si>
+  <si>
+    <t>搜索链接图标乱码</t>
   </si>
   <si>
     <t>未引入样式文件</t>
@@ -570,16 +570,40 @@
     <t>引入需要的样式文件</t>
   </si>
   <si>
+    <t>跳转到搜索页面时搜索关键字未带过去，需要重新输入</t>
+  </si>
+  <si>
+    <t>传递参数到搜索页面并触发搜索</t>
+  </si>
+  <si>
     <t>独立搜索页面样式和整体样式不符</t>
   </si>
   <si>
     <t>修改搜索页面样式</t>
   </si>
   <si>
+    <t>搜索页面的搜索结果不需要增加最后的跳转链接</t>
+  </si>
+  <si>
+    <t>清除搜索页面搜索结果的跳转链接</t>
+  </si>
+  <si>
     <t>头部搜索弹出框被目录遮挡</t>
   </si>
   <si>
+    <t>头部搜索弹出框和目录z-index属性都是1</t>
+  </si>
+  <si>
+    <t>将头部搜索弹出框的z-index属性改为2</t>
+  </si>
+  <si>
     <t>右侧目录高度未与文本平齐</t>
+  </si>
+  <si>
+    <t>右侧目录顶部定位距离不够</t>
+  </si>
+  <si>
+    <t>调整右侧目录顶部定位，使其与文本平齐</t>
   </si>
 </sst>
 </file>
@@ -750,10 +774,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1320,9 +1344,7 @@
       <c r="G22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>42887</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
@@ -1331,13 +1353,17 @@
         <v>42887</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H23" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1349,45 +1375,63 @@
         <v>42887</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2" t="n">
-        <v>42887</v>
-      </c>
+      <c r="G24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H25" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="H26" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1491,26 +1535,34 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
@@ -1522,7 +1574,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
@@ -1549,6 +1601,30 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/代码检视.xlsx
+++ b/代码检视.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>检视时间</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>传递参数到搜索页面并触发搜索</t>
+  </si>
+  <si>
+    <t>搜索页面的搜索结果中文本太长</t>
+  </si>
+  <si>
+    <t>搜索页面的搜索结果中文本按搜索关键字截取前后长度20的内容显示</t>
   </si>
   <si>
     <t>独立搜索页面样式和整体样式不符</t>
@@ -774,10 +780,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1348,7 +1354,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1361,12 +1367,10 @@
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>42887</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
@@ -1386,31 +1390,29 @@
       <c r="G24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>42887</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
@@ -1423,14 +1425,14 @@
         <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>42887</v>
@@ -1438,16 +1440,24 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>42887</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="H27" s="2" t="n">
         <v>42887</v>
       </c>
@@ -1567,14 +1577,18 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="n">
+        <v>42887</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
@@ -1586,7 +1600,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
@@ -1625,6 +1639,18 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
